--- a/doc/second sprint/BurndownChart_Sprint2.xlsx
+++ b/doc/second sprint/BurndownChart_Sprint2.xlsx
@@ -75,11 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -289,40 +288,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>17</c:v>
@@ -468,34 +467,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25</c:v>
@@ -1744,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,11 +1773,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <f>B2-0</f>
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1786,12 +1785,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>B2-2</f>
-        <v>41</v>
+        <f>B2-3</f>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <f>B3+1</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1799,12 +1798,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B9" si="0">B3-2</f>
-        <v>39</v>
+        <f t="shared" ref="B4:B6" si="0">B3-3</f>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <f>B4+1</f>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1813,11 +1812,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C5" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
         <f>B5+2</f>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,11 +1825,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
         <f>B6+2</f>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1838,12 +1837,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C7" s="2">
+        <f t="shared" ref="B4:B9" si="1">B6-2</f>
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
         <f>B7+1</f>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1851,12 +1850,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C8" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
         <f>B8+1</f>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1864,47 +1862,46 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
         <f>B9+2</f>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <f>B10+2</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B15" si="1">B10-3</f>
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:B15" si="2">B10-3</f>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
         <f>B11+2</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
         <v>25</v>
       </c>
     </row>
@@ -1912,12 +1909,12 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
-        <f>B13+5</f>
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B13+4</f>
         <v>24</v>
       </c>
     </row>
@@ -1925,10 +1922,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1936,11 +1933,11 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" si="1"/>
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f>C14-2</f>
         <v>18</v>
       </c>
@@ -1949,60 +1946,59 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f>B15-2</f>
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2012,9 +2008,6 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/second sprint/BurndownChart_Sprint2.xlsx
+++ b/doc/second sprint/BurndownChart_Sprint2.xlsx
@@ -174,7 +174,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5003518881906321E-2"/>
+          <c:y val="0.12127542605827379"/>
+          <c:w val="0.58340760244086209"/>
+          <c:h val="0.71598568045954125"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -663,7 +673,7 @@
         <c:axId val="377761496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43"/>
+          <c:max val="56"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1746,7 +1756,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B4:B9" si="1">B6-2</f>
+        <f t="shared" ref="B7" si="1">B6-2</f>
         <v>42</v>
       </c>
       <c r="C7" s="1">
